--- a/HRBackend/output/farag.xlsx
+++ b/HRBackend/output/farag.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Farag" sheetId="1" r:id="rId1"/>
+    <sheet name="farag" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No</v>
+        <v>AC-No.</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,26 +438,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>14</v>
+      <c r="A2" t="str">
+        <v>48</v>
       </c>
       <c r="B2" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C2" t="str">
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <v>True</v>
@@ -469,30 +469,30 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>14</v>
+      <c r="A3" t="str">
+        <v>48</v>
       </c>
       <c r="B3" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C3" t="str">
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v>True</v>
@@ -504,30 +504,30 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>14</v>
+      <c r="A4" t="str">
+        <v>48</v>
       </c>
       <c r="B4" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C4" t="str">
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v>True</v>
@@ -539,30 +539,30 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>14</v>
+      <c r="A5" t="str">
+        <v>48</v>
       </c>
       <c r="B5" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C5" t="str">
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v>True</v>
@@ -574,30 +574,30 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>14</v>
+      <c r="A6" t="str">
+        <v>48</v>
       </c>
       <c r="B6" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C6" t="str">
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v>True</v>
@@ -609,30 +609,30 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>14</v>
+      <c r="A7" t="str">
+        <v>48</v>
       </c>
       <c r="B7" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C7" t="str">
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <v>True</v>
@@ -644,30 +644,30 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>14</v>
+      <c r="A8" t="str">
+        <v>48</v>
       </c>
       <c r="B8" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C8" t="str">
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <v>True</v>
@@ -679,30 +679,30 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>14</v>
+      <c r="A9" t="str">
+        <v>48</v>
       </c>
       <c r="B9" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C9" t="str">
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <v>True</v>
@@ -714,30 +714,30 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>14</v>
+      <c r="A10" t="str">
+        <v>48</v>
       </c>
       <c r="B10" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C10" t="str">
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <v>True</v>
@@ -749,30 +749,30 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>14</v>
+      <c r="A11" t="str">
+        <v>48</v>
       </c>
       <c r="B11" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C11" t="str">
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <v>True</v>
@@ -784,30 +784,30 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>14</v>
+      <c r="A12" t="str">
+        <v>48</v>
       </c>
       <c r="B12" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C12" t="str">
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <v>True</v>
@@ -819,30 +819,30 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>14</v>
+      <c r="A13" t="str">
+        <v>48</v>
       </c>
       <c r="B13" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C13" t="str">
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <v>True</v>
@@ -854,30 +854,30 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" t="str">
+        <v>48</v>
       </c>
       <c r="B14" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C14" t="str">
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,30 +889,30 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="str">
+        <v>48</v>
       </c>
       <c r="B15" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C15" t="str">
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H15" t="str">
         <v>True</v>
@@ -924,30 +924,30 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="str">
+        <v>48</v>
       </c>
       <c r="B16" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C16" t="str">
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <v>True</v>
@@ -959,30 +959,30 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>14</v>
+      <c r="A17" t="str">
+        <v>48</v>
       </c>
       <c r="B17" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C17" t="str">
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <v>True</v>
@@ -994,30 +994,30 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>14</v>
+      <c r="A18" t="str">
+        <v>48</v>
       </c>
       <c r="B18" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C18" t="str">
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <v>True</v>
@@ -1029,30 +1029,30 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>14</v>
+      <c r="A19" t="str">
+        <v>48</v>
       </c>
       <c r="B19" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C19" t="str">
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <v>True</v>
@@ -1064,30 +1064,30 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>14</v>
+      <c r="A20" t="str">
+        <v>48</v>
       </c>
       <c r="B20" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C20" t="str">
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v>True</v>
@@ -1099,30 +1099,30 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>14</v>
+      <c r="A21" t="str">
+        <v>48</v>
       </c>
       <c r="B21" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C21" t="str">
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <v>True</v>
@@ -1134,30 +1134,30 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>14</v>
+      <c r="A22" t="str">
+        <v>48</v>
       </c>
       <c r="B22" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C22" t="str">
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <v>True</v>
@@ -1169,30 +1169,30 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>14</v>
+      <c r="A23" t="str">
+        <v>48</v>
       </c>
       <c r="B23" t="str">
-        <v>Farag</v>
+        <v>farag</v>
       </c>
       <c r="C23" t="str">
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <v>True</v>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/farag.xlsx
+++ b/HRBackend/output/farag.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="farag" sheetId="1" r:id="rId1"/>
+    <sheet name="Farag" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No.</v>
+        <v>AC-No</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,20 +438,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>48</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C2" t="str">
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>07:58</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>17:52</v>
       </c>
       <c r="F2" t="str">
         <v/>
@@ -460,7 +460,7 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -469,24 +469,24 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>48</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C3" t="str">
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>07:58</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>19:18</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -495,7 +495,7 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -504,24 +504,24 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>48</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C4" t="str">
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>07:39</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>17:24</v>
       </c>
       <c r="F4" t="str">
         <v/>
@@ -530,7 +530,7 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -539,24 +539,24 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>48</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C5" t="str">
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>07:45</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>17:57</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -565,7 +565,7 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -574,24 +574,24 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>48</v>
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C6" t="str">
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>07:21</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>17:37</v>
       </c>
       <c r="F6" t="str">
         <v/>
@@ -600,7 +600,7 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -609,24 +609,24 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>48</v>
+      <c r="A7">
+        <v>3</v>
       </c>
       <c r="B7" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C7" t="str">
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>07:28</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>17:13</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -635,7 +635,7 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,24 +644,24 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>48</v>
+      <c r="A8">
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C8" t="str">
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>07:18</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>18:10</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -670,7 +670,7 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,24 +679,24 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>48</v>
+      <c r="A9">
+        <v>3</v>
       </c>
       <c r="B9" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C9" t="str">
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>07:27</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>17:51</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -705,7 +705,7 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,33 +714,33 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>48</v>
+      <c r="A10">
+        <v>3</v>
       </c>
       <c r="B10" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C10" t="str">
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>07:33</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H10" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -749,24 +749,24 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>48</v>
+      <c r="A11">
+        <v>3</v>
       </c>
       <c r="B11" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C11" t="str">
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>07:19</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>18:06</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -775,7 +775,7 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -784,24 +784,24 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>48</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C12" t="str">
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>07:56</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>17:53</v>
       </c>
       <c r="F12" t="str">
         <v/>
@@ -810,7 +810,7 @@
         <v/>
       </c>
       <c r="H12" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -819,24 +819,24 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>48</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C13" t="str">
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>08:19</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>17:59</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -845,7 +845,7 @@
         <v/>
       </c>
       <c r="H13" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,30 +854,30 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>48</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C14" t="str">
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,24 +889,24 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>48</v>
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C15" t="str">
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>07:36</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>17:42</v>
       </c>
       <c r="F15" t="str">
         <v/>
@@ -915,7 +915,7 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,24 +924,24 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>48</v>
+      <c r="A16">
+        <v>3</v>
       </c>
       <c r="B16" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C16" t="str">
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>07:51</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>17:44</v>
       </c>
       <c r="F16" t="str">
         <v/>
@@ -950,7 +950,7 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -959,24 +959,24 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>48</v>
+      <c r="A17">
+        <v>3</v>
       </c>
       <c r="B17" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C17" t="str">
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>07:45</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>18:02</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -985,7 +985,7 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,24 +994,24 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>48</v>
+      <c r="A18">
+        <v>3</v>
       </c>
       <c r="B18" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C18" t="str">
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>08:07</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>17:26</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -1020,7 +1020,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1029,24 +1029,24 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>48</v>
+      <c r="A19">
+        <v>3</v>
       </c>
       <c r="B19" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C19" t="str">
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>07:45</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>17:27</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -1055,7 +1055,7 @@
         <v/>
       </c>
       <c r="H19" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,24 +1064,24 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>48</v>
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C20" t="str">
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>07:28</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>18:01</v>
       </c>
       <c r="F20" t="str">
         <v/>
@@ -1090,7 +1090,7 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1099,24 +1099,24 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>48</v>
+      <c r="A21">
+        <v>3</v>
       </c>
       <c r="B21" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C21" t="str">
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>07:29</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>17:52</v>
       </c>
       <c r="F21" t="str">
         <v/>
@@ -1125,7 +1125,7 @@
         <v/>
       </c>
       <c r="H21" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1134,24 +1134,24 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>48</v>
+      <c r="A22">
+        <v>3</v>
       </c>
       <c r="B22" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C22" t="str">
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>07:36</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>17:56</v>
       </c>
       <c r="F22" t="str">
         <v/>
@@ -1160,7 +1160,7 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,24 +1169,24 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>48</v>
+      <c r="A23">
+        <v>3</v>
       </c>
       <c r="B23" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C23" t="str">
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>07:19</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>17:17</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -1195,7 +1195,7 @@
         <v/>
       </c>
       <c r="H23" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/farag.xlsx
+++ b/HRBackend/output/farag.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="farag" sheetId="1" r:id="rId1"/>
+    <sheet name="Farag" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No.</v>
+        <v>AC-No</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,26 +438,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>48</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C2" t="str">
         <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" t="str">
         <v>True</v>
@@ -469,33 +469,33 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>48</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C3" t="str">
         <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
-        <v>07:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>18:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -504,33 +504,33 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>48</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C4" t="str">
         <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
-        <v>07:40</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>18:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -539,33 +539,33 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>48</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C5" t="str">
         <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
-        <v>07:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>18:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -574,33 +574,33 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>48</v>
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C6" t="str">
         <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
-        <v>08:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>18:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -609,24 +609,24 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>48</v>
+      <c r="A7">
+        <v>3</v>
       </c>
       <c r="B7" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C7" t="str">
         <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>07:52</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>17:37</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -635,7 +635,7 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,33 +644,33 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>48</v>
+      <c r="A8">
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C8" t="str">
         <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
-        <v>10:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>18:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
-        <v>01:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,33 +679,33 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>48</v>
+      <c r="A9">
+        <v>3</v>
       </c>
       <c r="B9" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C9" t="str">
         <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>07:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G9" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,33 +714,33 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>48</v>
+      <c r="A10">
+        <v>3</v>
       </c>
       <c r="B10" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C10" t="str">
         <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>07:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G10" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -749,33 +749,33 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>48</v>
+      <c r="A11">
+        <v>3</v>
       </c>
       <c r="B11" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C11" t="str">
         <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v>07:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -784,33 +784,33 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>48</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C12" t="str">
         <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
-        <v>07:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -819,33 +819,33 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>48</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C13" t="str">
         <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
-        <v>07:37</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="str">
-        <v>18:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,33 +854,33 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>48</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C14" t="str">
         <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
-        <v>08:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v>18:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -889,33 +889,33 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>48</v>
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C15" t="str">
         <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
-        <v>07:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G15" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,33 +924,33 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>48</v>
+      <c r="A16">
+        <v>3</v>
       </c>
       <c r="B16" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C16" t="str">
         <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
-        <v>08:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E16" t="str">
-        <v>17:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -959,33 +959,33 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>48</v>
+      <c r="A17">
+        <v>3</v>
       </c>
       <c r="B17" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C17" t="str">
         <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
-        <v>07:35</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v>17:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,33 +994,33 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>48</v>
+      <c r="A18">
+        <v>3</v>
       </c>
       <c r="B18" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C18" t="str">
         <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
-        <v>07:45</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" t="str">
-        <v>17:58</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1029,33 +1029,33 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>48</v>
+      <c r="A19">
+        <v>3</v>
       </c>
       <c r="B19" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C19" t="str">
         <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
-        <v>08:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G19" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,33 +1064,33 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>48</v>
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C20" t="str">
         <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
-        <v>07:42</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v>17:57</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1099,33 +1099,33 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>48</v>
+      <c r="A21">
+        <v>3</v>
       </c>
       <c r="B21" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C21" t="str">
         <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
-        <v>08:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
-        <v>18:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1134,24 +1134,24 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>48</v>
+      <c r="A22">
+        <v>3</v>
       </c>
       <c r="B22" t="str">
-        <v>farag</v>
+        <v>Farag</v>
       </c>
       <c r="C22" t="str">
         <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>07:44</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>17:15</v>
       </c>
       <c r="F22" t="str">
         <v/>
@@ -1160,7 +1160,7 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,7 +1169,7 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/farag.xlsx
+++ b/HRBackend/output/farag.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" t="str">
         <v>Farag</v>
       </c>
       <c r="C2" t="str">
-        <v>23-Jul-23</v>
+        <v>21-Aug-23</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve"> </v>
@@ -469,18 +469,18 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" t="str">
         <v>Farag</v>
       </c>
       <c r="C3" t="str">
-        <v>24-Jul-23</v>
+        <v>22-Aug-23</v>
       </c>
       <c r="D3" t="str">
         <v xml:space="preserve"> </v>
@@ -504,18 +504,18 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="str">
         <v>Farag</v>
       </c>
       <c r="C4" t="str">
-        <v>25-Jul-23</v>
+        <v>23-Aug-23</v>
       </c>
       <c r="D4" t="str">
         <v xml:space="preserve"> </v>
@@ -539,18 +539,18 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" t="str">
         <v>Farag</v>
       </c>
       <c r="C5" t="str">
-        <v>26-Jul-23</v>
+        <v>24-Aug-23</v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
@@ -574,18 +574,18 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="str">
         <v>Farag</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Jul-23</v>
+        <v>27-Aug-23</v>
       </c>
       <c r="D6" t="str">
         <v xml:space="preserve"> </v>
@@ -609,33 +609,33 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" t="str">
         <v>Farag</v>
       </c>
       <c r="C7" t="str">
-        <v>30-Jul-23</v>
+        <v>28-Aug-23</v>
       </c>
       <c r="D7" t="str">
-        <v>07:52</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="str">
-        <v>17:37</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,18 +644,18 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" t="str">
         <v>Farag</v>
       </c>
       <c r="C8" t="str">
-        <v>31-Jul-23</v>
+        <v>29-Aug-23</v>
       </c>
       <c r="D8" t="str">
         <v xml:space="preserve"> </v>
@@ -679,18 +679,18 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B9" t="str">
         <v>Farag</v>
       </c>
       <c r="C9" t="str">
-        <v>01-Aug-23</v>
+        <v>30-Aug-23</v>
       </c>
       <c r="D9" t="str">
         <v xml:space="preserve"> </v>
@@ -714,18 +714,18 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10" t="str">
         <v>Farag</v>
       </c>
       <c r="C10" t="str">
-        <v>02-Aug-23</v>
+        <v>31-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v xml:space="preserve"> </v>
@@ -749,18 +749,18 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B11" t="str">
         <v>Farag</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Aug-23</v>
+        <v>03-Sep-23</v>
       </c>
       <c r="D11" t="str">
         <v xml:space="preserve"> </v>
@@ -784,18 +784,18 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B12" t="str">
         <v>Farag</v>
       </c>
       <c r="C12" t="str">
-        <v>06-Aug-23</v>
+        <v>04-Sep-23</v>
       </c>
       <c r="D12" t="str">
         <v xml:space="preserve"> </v>
@@ -819,18 +819,18 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
         <v>Farag</v>
       </c>
       <c r="C13" t="str">
-        <v>07-Aug-23</v>
+        <v>05-Sep-23</v>
       </c>
       <c r="D13" t="str">
         <v xml:space="preserve"> </v>
@@ -854,18 +854,18 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
         <v>Farag</v>
       </c>
       <c r="C14" t="str">
-        <v>08-Aug-23</v>
+        <v>06-Sep-23</v>
       </c>
       <c r="D14" t="str">
         <v xml:space="preserve"> </v>
@@ -889,18 +889,18 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <v>Farag</v>
       </c>
       <c r="C15" t="str">
-        <v>09-Aug-23</v>
+        <v>07-Sep-23</v>
       </c>
       <c r="D15" t="str">
         <v xml:space="preserve"> </v>
@@ -924,18 +924,18 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
         <v>Farag</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Aug-23</v>
+        <v>10-Sep-23</v>
       </c>
       <c r="D16" t="str">
         <v xml:space="preserve"> </v>
@@ -959,18 +959,18 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
         <v>Farag</v>
       </c>
       <c r="C17" t="str">
-        <v>13-Aug-23</v>
+        <v>11-Sep-23</v>
       </c>
       <c r="D17" t="str">
         <v xml:space="preserve"> </v>
@@ -994,18 +994,18 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B18" t="str">
         <v>Farag</v>
       </c>
       <c r="C18" t="str">
-        <v>14-Aug-23</v>
+        <v>12-Sep-23</v>
       </c>
       <c r="D18" t="str">
         <v xml:space="preserve"> </v>
@@ -1029,18 +1029,18 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <v>Farag</v>
       </c>
       <c r="C19" t="str">
-        <v>15-Aug-23</v>
+        <v>13-Sep-23</v>
       </c>
       <c r="D19" t="str">
         <v xml:space="preserve"> </v>
@@ -1064,18 +1064,18 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B20" t="str">
         <v>Farag</v>
       </c>
       <c r="C20" t="str">
-        <v>16-Aug-23</v>
+        <v>14-Sep-23</v>
       </c>
       <c r="D20" t="str">
         <v xml:space="preserve"> </v>
@@ -1099,18 +1099,18 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B21" t="str">
         <v>Farag</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Aug-23</v>
+        <v>17-Sep-23</v>
       </c>
       <c r="D21" t="str">
         <v xml:space="preserve"> </v>
@@ -1134,33 +1134,33 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B22" t="str">
         <v>Farag</v>
       </c>
       <c r="C22" t="str">
-        <v>20-Aug-23</v>
+        <v>18-Sep-23</v>
       </c>
       <c r="D22" t="str">
-        <v>07:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" t="str">
-        <v>17:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,12 +1169,82 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>penta3d</v>
+        <v>promech12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Farag</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19-Sep-23</v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" t="str">
+        <v>True</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>promech12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Farag</v>
+      </c>
+      <c r="C24" t="str">
+        <v>20-Sep-23</v>
+      </c>
+      <c r="D24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H24" t="str">
+        <v>True</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>promech12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HRBackend/output/farag.xlsx
+++ b/HRBackend/output/farag.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="str">
         <v>Farag</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve"> </v>
@@ -469,18 +469,18 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
         <v>Farag</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
         <v xml:space="preserve"> </v>
@@ -504,18 +504,18 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <v>Farag</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
         <v xml:space="preserve"> </v>
@@ -539,18 +539,18 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
         <v>Farag</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
@@ -574,18 +574,18 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str">
         <v>Farag</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
         <v xml:space="preserve"> </v>
@@ -609,33 +609,33 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B7" t="str">
         <v>Farag</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>07:52</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:37</v>
       </c>
       <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,18 +644,18 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
         <v>Farag</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
         <v xml:space="preserve"> </v>
@@ -679,18 +679,18 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B9" t="str">
         <v>Farag</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
         <v xml:space="preserve"> </v>
@@ -714,18 +714,18 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B10" t="str">
         <v>Farag</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v xml:space="preserve"> </v>
@@ -749,18 +749,18 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B11" t="str">
         <v>Farag</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
         <v xml:space="preserve"> </v>
@@ -784,18 +784,18 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B12" t="str">
         <v>Farag</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
         <v xml:space="preserve"> </v>
@@ -819,18 +819,18 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B13" t="str">
         <v>Farag</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
         <v xml:space="preserve"> </v>
@@ -854,18 +854,18 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B14" t="str">
         <v>Farag</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
         <v xml:space="preserve"> </v>
@@ -889,18 +889,18 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" t="str">
         <v>Farag</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
         <v xml:space="preserve"> </v>
@@ -924,18 +924,18 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16" t="str">
         <v>Farag</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
         <v xml:space="preserve"> </v>
@@ -959,18 +959,18 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" t="str">
         <v>Farag</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
         <v xml:space="preserve"> </v>
@@ -994,18 +994,18 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18" t="str">
         <v>Farag</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
         <v xml:space="preserve"> </v>
@@ -1029,18 +1029,18 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B19" t="str">
         <v>Farag</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
         <v xml:space="preserve"> </v>
@@ -1064,18 +1064,18 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B20" t="str">
         <v>Farag</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
         <v xml:space="preserve"> </v>
@@ -1099,18 +1099,18 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B21" t="str">
         <v>Farag</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
         <v xml:space="preserve"> </v>
@@ -1134,33 +1134,33 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B22" t="str">
         <v>Farag</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> </v>
+        <v>07:44</v>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:15</v>
       </c>
       <c r="F22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,82 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Farag</v>
-      </c>
-      <c r="C23" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H23" t="str">
-        <v>True</v>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v>promech12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Farag</v>
-      </c>
-      <c r="C24" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H24" t="str">
-        <v>True</v>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <v>promech12</v>
+        <v>penta3d</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>